--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78194102-8507-42D1-81D5-CF4A048A0A80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B01261-DB7C-447F-82F9-0807039F5DA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bref 900ml javel disinf</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Item Name</t>
+  </si>
+  <si>
+    <t>Le Chat HS 300 gr</t>
+  </si>
+  <si>
+    <t>2830113</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +451,16 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B01261-DB7C-447F-82F9-0807039F5DA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C1652-02A3-4B33-9B6F-583165ADB411}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bref 900ml javel disinf</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>2830113</t>
+  </si>
+  <si>
+    <t>ISIS LS Gel 2,5L Lemon</t>
+  </si>
+  <si>
+    <t>Le Chat LS 2,5kg bag Regular</t>
+  </si>
+  <si>
+    <t>ISIS LS bag 2,5Kg Citron Limitless</t>
+  </si>
+  <si>
+    <t>Le Chat Reg 2,5L FRESCO</t>
   </si>
 </sst>
 </file>
@@ -383,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +473,46 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2876884</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2917788</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2918203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2922764</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C1652-02A3-4B33-9B6F-583165ADB411}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8410676-6121-4D7C-9D5D-F20D85B7CC5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Bref 900ml javel disinf</t>
   </si>
   <si>
-    <t>Pril ISIS Cold Power liquid 1250ml Lemon</t>
-  </si>
-  <si>
     <t>Pril ISIS Cold Power liquid 650ml Lemon</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Le Chat HS 300 gr</t>
   </si>
   <si>
-    <t>2830113</t>
-  </si>
-  <si>
     <t>ISIS LS Gel 2,5L Lemon</t>
   </si>
   <si>
@@ -62,6 +56,21 @@
   </si>
   <si>
     <t>Le Chat Reg 2,5L FRESCO</t>
+  </si>
+  <si>
+    <t>ISIS HS POWDER SDM 300GR LIMITLESS</t>
+  </si>
+  <si>
+    <t>ISIS HS POWDER SDM 750 GR LIMITLESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE   </t>
+  </si>
+  <si>
+    <t>ISIS HS 1,5Kg LEMON LIMITLESS</t>
+  </si>
+  <si>
+    <t>Nettoyant Moussant Javelisé 900ml</t>
   </si>
 </sst>
 </file>
@@ -112,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,16 +421,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -428,44 +438,44 @@
         <v>2845959</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2875891</v>
+      <c r="A5" s="2">
+        <v>2830113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="1">
+        <v>2876884</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -475,43 +485,83 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2823411</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2766729</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2875893</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2910278</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8410676-6121-4D7C-9D5D-F20D85B7CC5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A808F4CF-A9B5-4D39-8547-A1E7C4B6258A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bref 900ml javel disinf</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Le Chat Reg 2,5L FRESCO</t>
   </si>
   <si>
-    <t>ISIS HS POWDER SDM 300GR LIMITLESS</t>
-  </si>
-  <si>
-    <t>ISIS HS POWDER SDM 750 GR LIMITLESS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE   </t>
   </si>
   <si>
@@ -71,6 +65,9 @@
   </si>
   <si>
     <t>Nettoyant Moussant Javelisé 900ml</t>
+  </si>
+  <si>
+    <t>ISIS HS 750g LEMON LIMITLESS</t>
   </si>
 </sst>
 </file>
@@ -405,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,104 +461,94 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2830113</v>
+      <c r="A5" s="1">
+        <v>2875892</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2876884</v>
+      <c r="A6" s="2">
+        <v>2830113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2910278</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A808F4CF-A9B5-4D39-8547-A1E7C4B6258A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9AC4E-1169-405D-A376-DD4F902D18D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Bref 900ml javel disinf</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>ISIS HS 750g LEMON LIMITLESS</t>
+  </si>
+  <si>
+    <t>Pril ISIS Cold Power liquid 3000ml Lemon</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +553,16 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2845956</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E9AC4E-1169-405D-A376-DD4F902D18D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27316B83-1F7D-4433-9FCC-050137984AA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Bref 900ml javel disinf</t>
   </si>
   <si>
-    <t>Pril ISIS Cold Power liquid 650ml Lemon</t>
-  </si>
-  <si>
     <t>ISIS HS 300g LEMON LIMITLESS</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Pril ISIS Cold Power liquid 3000ml Lemon</t>
+  </si>
+  <si>
+    <t>2970482</t>
+  </si>
+  <si>
+    <t>Pril Isis Ultra Power 650ml</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D14"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,24 +424,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2845959</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -458,7 +461,7 @@
         <v>2875891</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -468,7 +471,7 @@
         <v>2875892</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -478,7 +481,7 @@
         <v>2830113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -488,7 +491,7 @@
         <v>2876884</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -498,7 +501,7 @@
         <v>2917788</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -508,7 +511,7 @@
         <v>2918203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -518,7 +521,7 @@
         <v>2922764</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -528,7 +531,7 @@
         <v>2766729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -538,7 +541,7 @@
         <v>2875893</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -548,7 +551,7 @@
         <v>2910278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -558,7 +561,7 @@
         <v>2845956</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27316B83-1F7D-4433-9FCC-050137984AA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90D6B6-4441-4E80-80FF-23EE1E6DB1D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,6 @@
     <t>NBRUN</t>
   </si>
   <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
     <t>Le Chat HS 300 gr</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Pril Isis Ultra Power 650ml</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemNameE</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,11 +423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -438,10 +438,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -471,7 +471,7 @@
         <v>2875892</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -481,7 +481,7 @@
         <v>2830113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -491,7 +491,7 @@
         <v>2876884</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -501,7 +501,7 @@
         <v>2917788</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -511,7 +511,7 @@
         <v>2918203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -521,7 +521,7 @@
         <v>2922764</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -531,7 +531,7 @@
         <v>2766729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -541,7 +541,7 @@
         <v>2875893</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -551,7 +551,7 @@
         <v>2910278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -561,7 +561,7 @@
         <v>2845956</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90D6B6-4441-4E80-80FF-23EE1E6DB1D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE92234-7F15-4B2A-B443-5E97B92F3FBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="2415" windowWidth="10605" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>NBRUN</t>
   </si>
   <si>
-    <t>Le Chat HS 300 gr</t>
-  </si>
-  <si>
     <t>ISIS LS Gel 2,5L Lemon</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>ISIS LS bag 2,5Kg Citron Limitless</t>
   </si>
   <si>
-    <t>Le Chat Reg 2,5L FRESCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE   </t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>ItemNameE</t>
+  </si>
+  <si>
+    <t>Le Chat HS 300gr ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 2,5L ADV23</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,10 +424,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -438,10 +438,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -471,17 +471,17 @@
         <v>2875892</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2830113</v>
+        <v>2958932</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -491,7 +491,7 @@
         <v>2876884</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -501,7 +501,7 @@
         <v>2917788</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -511,17 +511,17 @@
         <v>2918203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2922764</v>
+        <v>2952074</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -531,7 +531,7 @@
         <v>2766729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -541,7 +541,7 @@
         <v>2875893</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -551,7 +551,7 @@
         <v>2910278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -561,7 +561,7 @@
         <v>2845956</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
